--- a/ClientExcel/Game/UIGroup.xlsx
+++ b/ClientExcel/Game/UIGroup.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="UIGroup" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
     <t>#</t>
   </si>
   <si>
-    <t>UI组配置表</t>
+    <t>界面组配置表</t>
   </si>
   <si>
     <t>Id</t>
@@ -74,7 +74,7 @@
     <t>Pop</t>
   </si>
   <si>
-    <t>新手引导</t>
+    <t>新手引导组</t>
   </si>
   <si>
     <t>Guide</t>
@@ -1036,7 +1036,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.875" defaultRowHeight="14.25" outlineLevelCol="4"/>
